--- a/doc/test2.xlsx
+++ b/doc/test2.xlsx
@@ -20,9 +20,170 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t xml:space="preserve">20140gfnd244</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20140gfnd244</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">当视图解释器解析</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ModelAndVIew</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">是，其中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">本生就是一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Map</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">的实现类的子类。视图解析器将</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">model</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">中的每个元素都通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">request.setAttribute(name, value);</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">添加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">request</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">请求域中。这样就可以在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">JSP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">页面中通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">EL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">表达式来获取对应的值</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -31,6 +192,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -40,6 +202,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
         <charset val="1"/>
@@ -49,6 +212,7 @@
     <r>
       <rPr>
         <sz val="10"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -57,7 +221,87 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">20142</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">感</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">201402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">感觉受到了客观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">44</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">B</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">201402</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">感觉受到了客观</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">44</t>
+    </r>
   </si>
   <si>
     <r>
@@ -160,10 +404,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
@@ -193,7 +438,28 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Droid Sans Fallback"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -239,8 +505,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -248,7 +518,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -269,55 +547,119 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.8010204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.9540816326531"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.36734693877551"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4"/>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+    <row r="2" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
+    <row r="4" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
+    <row r="5" customFormat="false" ht="14.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
